--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/4.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/4.xlsx
@@ -479,13 +479,13 @@
         <v>0.1334689999167037</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.598682336328745</v>
+        <v>-1.871979252690075</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.198833263741944</v>
+        <v>0.1407553210544559</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07506937985758162</v>
+        <v>-0.005612223110189531</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1683522181040987</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.648043216697965</v>
+        <v>-1.992198887521854</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2355986722156402</v>
+        <v>0.05472661951981909</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05090615240685381</v>
+        <v>-0.0657955359676274</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2042252397249381</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.691581794286948</v>
+        <v>-2.215987322710191</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3153830058617305</v>
+        <v>0.05259616659593812</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07149036532642401</v>
+        <v>-0.06820655240281247</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2298238047508749</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.765346210853535</v>
+        <v>-2.278812202018625</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3079578315429996</v>
+        <v>0.07748580957267287</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04673612473992734</v>
+        <v>-0.06679885548087795</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2414856989187049</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.683660144537344</v>
+        <v>-2.246648645050993</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2978788923597379</v>
+        <v>0.06142842791592675</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.04568523141389044</v>
+        <v>-0.07305542178295954</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2385208907158154</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.586177742614056</v>
+        <v>-1.952243593908766</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1694180093437387</v>
+        <v>0.177145628311952</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06011534470507274</v>
+        <v>-0.0709127704455436</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.227799952606497</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.298962436409335</v>
+        <v>-1.779207268153312</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09102124523725033</v>
+        <v>0.1534886350229251</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05698706155403195</v>
+        <v>-0.04051615367845064</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2207700154861521</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9144513640084102</v>
+        <v>-1.345649424531692</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03303608649881246</v>
+        <v>0.1634956035663305</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07168858954636714</v>
+        <v>-0.0551512003170203</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2280193770726258</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3232351246541849</v>
+        <v>-0.8624946612389501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0193445111409875</v>
+        <v>0.161531049066525</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02840495880026446</v>
+        <v>0.03427048994236598</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2588030621931621</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2692058354189504</v>
+        <v>-0.5320981909618201</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04691239181550753</v>
+        <v>0.07974434583867093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03359164822914539</v>
+        <v>0.04933187113398252</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3210995107848219</v>
       </c>
       <c r="E12" t="n">
-        <v>1.050903351724978</v>
+        <v>0.0130800158701082</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1112889093255883</v>
+        <v>-0.07854653763572229</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1377593906902695</v>
+        <v>0.1676058590069357</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4178013543445179</v>
       </c>
       <c r="E13" t="n">
-        <v>1.75934817491221</v>
+        <v>0.4184424464470187</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1616738465110686</v>
+        <v>-0.166732528604017</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2564151889068669</v>
+        <v>0.2321372963689105</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5496745148758695</v>
       </c>
       <c r="E14" t="n">
-        <v>2.581360838030608</v>
+        <v>0.8081512628551903</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3639137841898967</v>
+        <v>-0.4524614581195029</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3926293835656874</v>
+        <v>0.3514487593130121</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7129693662166127</v>
       </c>
       <c r="E15" t="n">
-        <v>3.488736169304633</v>
+        <v>1.269359860357183</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6193522231360438</v>
+        <v>-0.7825578474236728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.509832350730271</v>
+        <v>0.4180197714180323</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8968657703231031</v>
       </c>
       <c r="E16" t="n">
-        <v>4.312691429778472</v>
+        <v>1.824292528572343</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9065522813238461</v>
+        <v>-0.989971132282678</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6899693730044262</v>
+        <v>0.531324735537519</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.0896327340405</v>
       </c>
       <c r="E17" t="n">
-        <v>5.00768384251935</v>
+        <v>2.231230994177971</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.267342318764685</v>
+        <v>-1.301231341326838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8879337667392503</v>
+        <v>0.5796957146483773</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.279571713285742</v>
       </c>
       <c r="E18" t="n">
-        <v>5.689127477346945</v>
+        <v>2.621890067000516</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.637763003691376</v>
+        <v>-1.510093797713796</v>
       </c>
       <c r="G18" t="n">
-        <v>1.029091368483114</v>
+        <v>0.6844898456445216</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.459565078139828</v>
       </c>
       <c r="E19" t="n">
-        <v>6.169705935701104</v>
+        <v>2.834286403788552</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.990806438616838</v>
+        <v>-1.778334471664885</v>
       </c>
       <c r="G19" t="n">
-        <v>1.197379461770085</v>
+        <v>0.8234358750144967</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.62957413554097</v>
       </c>
       <c r="E20" t="n">
-        <v>6.535769347313106</v>
+        <v>3.120219656730749</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.339132747028331</v>
+        <v>-1.956378246176441</v>
       </c>
       <c r="G20" t="n">
-        <v>1.409103056051668</v>
+        <v>0.9992467299284779</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.787476887576109</v>
       </c>
       <c r="E21" t="n">
-        <v>6.859256636164035</v>
+        <v>3.370487188179426</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.601716406702582</v>
+        <v>-2.184109818539954</v>
       </c>
       <c r="G21" t="n">
-        <v>1.571792077526092</v>
+        <v>1.096368668731808</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.92673617620616</v>
       </c>
       <c r="E22" t="n">
-        <v>7.015814734995786</v>
+        <v>3.568538190650349</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.927387211576268</v>
+        <v>-2.408797276805818</v>
       </c>
       <c r="G22" t="n">
-        <v>1.731525423400994</v>
+        <v>1.107493011955016</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.044208323707907</v>
       </c>
       <c r="E23" t="n">
-        <v>7.153728778580703</v>
+        <v>3.799873784292766</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.27453576316096</v>
+        <v>-2.569114316768368</v>
       </c>
       <c r="G23" t="n">
-        <v>1.819236286162102</v>
+        <v>1.282446928318166</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.13879827515466</v>
       </c>
       <c r="E24" t="n">
-        <v>7.16724462077744</v>
+        <v>3.948656614337334</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.403856939291512</v>
+        <v>-2.733290324852703</v>
       </c>
       <c r="G24" t="n">
-        <v>1.9170883000155</v>
+        <v>1.367980984183961</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.211575483543513</v>
       </c>
       <c r="E25" t="n">
-        <v>7.121754297022863</v>
+        <v>4.164186723562502</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.649814771238288</v>
+        <v>-2.830363470001894</v>
       </c>
       <c r="G25" t="n">
-        <v>1.963664892495365</v>
+        <v>1.448721063530515</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.264987937964042</v>
       </c>
       <c r="E26" t="n">
-        <v>6.980090461117299</v>
+        <v>4.288816694807847</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.805895607140484</v>
+        <v>-2.9719370376473</v>
       </c>
       <c r="G26" t="n">
-        <v>2.046140806087945</v>
+        <v>1.444466256889521</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.297352832507586</v>
       </c>
       <c r="E27" t="n">
-        <v>6.811287594779153</v>
+        <v>4.40761582438348</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.911339303657365</v>
+        <v>-2.936296932822203</v>
       </c>
       <c r="G27" t="n">
-        <v>2.032486511897586</v>
+        <v>1.459101913448767</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.306853419068325</v>
       </c>
       <c r="E28" t="n">
-        <v>6.508713266092562</v>
+        <v>4.457886706402409</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.943252793147531</v>
+        <v>-2.89745474444418</v>
       </c>
       <c r="G28" t="n">
-        <v>2.003579321423112</v>
+        <v>1.48543035930195</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.293485918758978</v>
       </c>
       <c r="E29" t="n">
-        <v>6.128769279719127</v>
+        <v>4.490993200736293</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.963481727272895</v>
+        <v>-3.016853731005395</v>
       </c>
       <c r="G29" t="n">
-        <v>1.928559688103777</v>
+        <v>1.486040889899375</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.255114067796267</v>
       </c>
       <c r="E30" t="n">
-        <v>5.886764953599033</v>
+        <v>4.515099705564083</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.902943745541928</v>
+        <v>-2.964664343497756</v>
       </c>
       <c r="G30" t="n">
-        <v>1.882250240880327</v>
+        <v>1.465671978978697</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.191939922405581</v>
       </c>
       <c r="E31" t="n">
-        <v>5.552876077526843</v>
+        <v>4.508171006676226</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.786116489514221</v>
+        <v>-2.909494578603187</v>
       </c>
       <c r="G31" t="n">
-        <v>1.777198113437919</v>
+        <v>1.341761104211238</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.105304349832182</v>
       </c>
       <c r="E32" t="n">
-        <v>5.020360433864881</v>
+        <v>4.419986235549284</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.616859232271898</v>
+        <v>-2.872705993143774</v>
       </c>
       <c r="G32" t="n">
-        <v>1.655618355496991</v>
+        <v>1.339442795718919</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.995861206170175</v>
       </c>
       <c r="E33" t="n">
-        <v>4.63747297030546</v>
+        <v>4.312475517858904</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.475215828709005</v>
+        <v>-2.93649454712147</v>
       </c>
       <c r="G33" t="n">
-        <v>1.483747588154802</v>
+        <v>1.233008588022999</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.868042558822318</v>
       </c>
       <c r="E34" t="n">
-        <v>4.179756778598526</v>
+        <v>4.199102242623622</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.194669090223509</v>
+        <v>-2.697756956146038</v>
       </c>
       <c r="G34" t="n">
-        <v>1.366055464607467</v>
+        <v>1.126625613663926</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.726826119564207</v>
       </c>
       <c r="E35" t="n">
-        <v>3.82872669182701</v>
+        <v>3.998842107461518</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.085587826790502</v>
+        <v>-2.638071948481503</v>
       </c>
       <c r="G35" t="n">
-        <v>1.271110942620127</v>
+        <v>1.082877833282818</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.575763933482641</v>
       </c>
       <c r="E36" t="n">
-        <v>3.377623260097379</v>
+        <v>3.84558977869774</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.922450513618669</v>
+        <v>-2.599634747432841</v>
       </c>
       <c r="G36" t="n">
-        <v>1.167764763310583</v>
+        <v>1.060793215498448</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.42211353451506</v>
       </c>
       <c r="E37" t="n">
-        <v>3.030560097407431</v>
+        <v>3.542099349154674</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.789301170360508</v>
+        <v>-2.606570765368819</v>
       </c>
       <c r="G37" t="n">
-        <v>1.041486176475988</v>
+        <v>1.035372941532942</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.270817524464087</v>
       </c>
       <c r="E38" t="n">
-        <v>2.668623409094306</v>
+        <v>3.374654166242969</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.596740063900994</v>
+        <v>-2.567643188096052</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9567084222493614</v>
+        <v>1.000203085549619</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.125076744083446</v>
       </c>
       <c r="E39" t="n">
-        <v>2.348826140337704</v>
+        <v>3.138402611945962</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.402600482730057</v>
+        <v>-2.566290993955701</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7799710978273998</v>
+        <v>0.8982896099097556</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9906161697840574</v>
       </c>
       <c r="E40" t="n">
-        <v>2.022032471498124</v>
+        <v>2.917528377751128</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.283263403117532</v>
+        <v>-2.62825222558586</v>
       </c>
       <c r="G40" t="n">
-        <v>0.697861746561546</v>
+        <v>0.8061946373241826</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8690828756524889</v>
       </c>
       <c r="E41" t="n">
-        <v>1.649395944752807</v>
+        <v>2.634248279752785</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.096187923224691</v>
+        <v>-2.534697712820829</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6148588615042563</v>
+        <v>0.7867174304329101</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7605178403941629</v>
       </c>
       <c r="E42" t="n">
-        <v>1.343031568980904</v>
+        <v>2.332465628104614</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.986147864487837</v>
+        <v>-2.512447196612383</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5180119969261392</v>
+        <v>0.7682154867037577</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6659899460212838</v>
       </c>
       <c r="E43" t="n">
-        <v>1.145173301443835</v>
+        <v>2.155550816765718</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.835849991482227</v>
+        <v>-2.376717888891577</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4846334779704249</v>
+        <v>0.677548338422452</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5826991922669584</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8864278725883593</v>
+        <v>1.836016423820795</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.75561309669399</v>
+        <v>-2.30118470236242</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4451789292329466</v>
+        <v>0.7316519619740652</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5080255161247704</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7511468565649634</v>
+        <v>1.708902855579732</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.684175527509197</v>
+        <v>-2.32763574227163</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3710979638351275</v>
+        <v>0.6193875225291107</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4406560849157463</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6595209129798096</v>
+        <v>1.516221594746899</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.61912870717537</v>
+        <v>-2.238981332223593</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3024160162678822</v>
+        <v>0.565289998184265</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3777867981591891</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4158435744433953</v>
+        <v>1.36147861984915</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.53255473655572</v>
+        <v>-2.137863803066886</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2269584599026427</v>
+        <v>0.4798791462951739</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3184164181258643</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2917289861699027</v>
+        <v>1.237193863706844</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.448671735961883</v>
+        <v>-2.137485652247302</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1572853912356818</v>
+        <v>0.4175367142420479</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2622658204107322</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1792339967091374</v>
+        <v>1.147019531332351</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.402351920086928</v>
+        <v>-2.075792175794236</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1052640368744864</v>
+        <v>0.3707856844486325</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2085403562666138</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06575154567271699</v>
+        <v>1.015298622299133</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.30564777694717</v>
+        <v>-2.029299142447085</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05741697962495478</v>
+        <v>0.3234967046183253</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1576547302968506</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.118051099868694</v>
+        <v>0.8206546367285256</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.266565279822508</v>
+        <v>-1.942625144836449</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03318178153437069</v>
+        <v>0.2420692446690758</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1100484238461939</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1495315456783683</v>
+        <v>0.7371144115550208</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.180970231889039</v>
+        <v>-1.881510483105617</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02614825229629664</v>
+        <v>0.1776384442187645</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.06528660489475234</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2549325477478769</v>
+        <v>0.586353608755759</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.120085510253341</v>
+        <v>-1.847237210517113</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.05652474168105692</v>
+        <v>0.1605082120916185</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.0236777647397326</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.386167959922403</v>
+        <v>0.4601488223230509</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.087945130271426</v>
+        <v>-1.822471381437758</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1233317930879787</v>
+        <v>0.1158973939529121</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.01534129196412536</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3896030331738481</v>
+        <v>0.4305377833876095</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.033398094387816</v>
+        <v>-1.783584668850332</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1056599513998805</v>
+        <v>0.07111518810403941</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.05234021959413061</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4763252145179475</v>
+        <v>0.3570392922360848</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.003856586409524</v>
+        <v>-1.810784691350589</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1459622898780386</v>
+        <v>0.006005545940507477</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.08742088958395688</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5343731950860904</v>
+        <v>0.1902400153210561</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.008416963309569</v>
+        <v>-1.764495981430148</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1838139670770231</v>
+        <v>0.03480051101046004</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.121046557271917</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6044988248951984</v>
+        <v>0.05105916649053302</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9720772794682434</v>
+        <v>-1.743418342683089</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2102759855584144</v>
+        <v>-0.02234051751135852</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1536138630157131</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7022916764429518</v>
+        <v>-0.008085451454402906</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9832040623741582</v>
+        <v>-1.811098800499114</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2711228921121541</v>
+        <v>-0.01818573786135074</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1851184215277621</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8024412614856595</v>
+        <v>-0.1744059406381843</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.016830819045309</v>
+        <v>-1.88915644870933</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2921865026836483</v>
+        <v>-0.03401866870905358</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2157429252393323</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8534495376027764</v>
+        <v>-0.2399663141818331</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.06744264672254</v>
+        <v>-1.896103445217491</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3425824184413101</v>
+        <v>-0.04812186451749893</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2451188590337088</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8737348893907401</v>
+        <v>-0.266216080267716</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.078004033161109</v>
+        <v>-1.84581426557826</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3593680453860934</v>
+        <v>-0.1004176831832309</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2732963840200348</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9212281926477579</v>
+        <v>-0.4248460796383812</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.098903575070558</v>
+        <v>-1.902906500445939</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3647878005196766</v>
+        <v>-0.1043675294858513</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3006854442753903</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.030020963600663</v>
+        <v>-0.4835509447753817</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.177038073286045</v>
+        <v>-1.926292079033813</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3830634636777555</v>
+        <v>-0.1105448060999557</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3271105535289049</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.075416749650344</v>
+        <v>-0.5776928111521212</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.242155644418374</v>
+        <v>-1.949540425469418</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4101707782351461</v>
+        <v>-0.1108631846932182</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3527348626486951</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.08598240553365</v>
+        <v>-0.6784822029847378</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.300498216673386</v>
+        <v>-1.989362146454299</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4439152495969092</v>
+        <v>-0.1497901520453095</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3777024826682468</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.131343426104757</v>
+        <v>-0.7472696668290605</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.392226017011557</v>
+        <v>-1.923261993111728</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5028976286418301</v>
+        <v>-0.1774073602884615</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4011731037009705</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.212887990823942</v>
+        <v>-0.842762507504797</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.457942530248453</v>
+        <v>-1.964127898295202</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4875007910780021</v>
+        <v>-0.1969479989301158</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.423096525604942</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.230128008672903</v>
+        <v>-0.9463819312775245</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.542822751148774</v>
+        <v>-1.977934062734071</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.487314765271594</v>
+        <v>-0.2133097310045592</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4429537563266626</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.275364605425952</v>
+        <v>-0.9861786455146585</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.562071237786266</v>
+        <v>-1.979525345779706</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5145538226951623</v>
+        <v>-0.2059705555012498</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4596240840556531</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.28418771793579</v>
+        <v>-1.030594289036806</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.7027652998158</v>
+        <v>-1.996192038192524</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5950999472665108</v>
+        <v>-0.2417100773966558</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4719484151486721</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.273860541037092</v>
+        <v>-1.086689303598001</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.827475780590476</v>
+        <v>-2.072969462902246</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6076905397966209</v>
+        <v>-0.2754020955802185</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4785655266918353</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.17131274789341</v>
+        <v>-1.099753194573268</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.845165919898877</v>
+        <v>-2.067073969640799</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6522135293578757</v>
+        <v>-0.2957978430106735</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4782161672362968</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.08782985526352</v>
+        <v>-1.085725628928739</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.930054069767995</v>
+        <v>-2.102831789156508</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6443839776304608</v>
+        <v>-0.2725891414190564</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4703826805554727</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.009413573695376</v>
+        <v>-1.068441696791053</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.964903717396025</v>
+        <v>-2.074732133658048</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6032137220292902</v>
+        <v>-0.3180087143751308</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4543099685524323</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.8898618020046355</v>
+        <v>-0.9599782830035922</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.996686683861366</v>
+        <v>-2.071478206847597</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5966204795136437</v>
+        <v>-0.2654512397390739</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.429818913255351</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7783121895928297</v>
+        <v>-0.864174992703391</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.9353420820354</v>
+        <v>-2.010544691557759</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5566590866937877</v>
+        <v>-0.2792299577474893</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3967558450438652</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6163928880124623</v>
+        <v>-0.7960047685839373</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.964872611441511</v>
+        <v>-1.97345907472877</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5107576764030823</v>
+        <v>-0.2456867602090531</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.355209162906773</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3677483554846117</v>
+        <v>-0.5757514336380322</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.947037920932721</v>
+        <v>-1.891596741336999</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.481572362100011</v>
+        <v>-0.2374985751237104</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3060969771602206</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1485605519609854</v>
+        <v>-0.512111700305463</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.971736048816957</v>
+        <v>-1.905452309350685</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4491062844767119</v>
+        <v>-0.2394057970799016</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2503195804979634</v>
       </c>
       <c r="E81" t="n">
-        <v>0.05030652437542592</v>
+        <v>-0.2751331205617726</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.902506392481992</v>
+        <v>-1.829203075947027</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4223167385919069</v>
+        <v>-0.1858584211854826</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1885796312837831</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2864324350130226</v>
+        <v>-0.1072121995222043</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.883857457869743</v>
+        <v>-1.898507752525232</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3179361338145978</v>
+        <v>-0.140756616901994</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1224042983063333</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5250760982042352</v>
+        <v>0.09640249936201389</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.810468752440033</v>
+        <v>-1.840778760471028</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2925762419960903</v>
+        <v>-0.1182054097999113</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.05312418444967428</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7843869235270557</v>
+        <v>0.2699365203896946</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.710596071384569</v>
+        <v>-1.721361781249849</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2438746858784346</v>
+        <v>-0.1229457132995972</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.01751079026272244</v>
       </c>
       <c r="E85" t="n">
-        <v>1.07057573323281</v>
+        <v>0.485737434395339</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.636990234193937</v>
+        <v>-1.619962468740484</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1978482418489959</v>
+        <v>-0.07687779466413962</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08665635306982503</v>
       </c>
       <c r="E86" t="n">
-        <v>1.308220956276186</v>
+        <v>0.6143239610707483</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.468452683350176</v>
+        <v>-1.498867597737571</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1894496341301752</v>
+        <v>-0.07854104834963156</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1507807683803837</v>
       </c>
       <c r="E87" t="n">
-        <v>1.524881858436045</v>
+        <v>0.7879159245627201</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.376570573080788</v>
+        <v>-1.401106462065009</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1317304008067995</v>
+        <v>-0.03525741760352889</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.206630410306389</v>
       </c>
       <c r="E88" t="n">
-        <v>1.708781481365059</v>
+        <v>0.9372928173464404</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.23018656105787</v>
+        <v>-1.304415737180139</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09138963732600616</v>
+        <v>0.03941639069208934</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2497718842249327</v>
       </c>
       <c r="E89" t="n">
-        <v>1.834675208252625</v>
+        <v>0.9811448941632722</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.055540044715801</v>
+        <v>-1.099953248555241</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.08266289228309494</v>
+        <v>0.02167501804684183</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.276726303383076</v>
       </c>
       <c r="E90" t="n">
-        <v>1.956070770149175</v>
+        <v>0.9954072792683488</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9552129727561597</v>
+        <v>-1.03821951733751</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.001530633941391527</v>
+        <v>0.06895850859105827</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.284440154679119</v>
       </c>
       <c r="E91" t="n">
-        <v>2.046170082280429</v>
+        <v>1.003212434168694</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.750568117848914</v>
+        <v>-0.794995959784596</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01918844745392455</v>
+        <v>0.06146441323585489</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2699336232545627</v>
       </c>
       <c r="E92" t="n">
-        <v>2.089606803116395</v>
+        <v>0.9571073103719545</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5638305340109914</v>
+        <v>-0.5710062507729322</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03089762859994922</v>
+        <v>0.02897637846819284</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2327625394916093</v>
       </c>
       <c r="E93" t="n">
-        <v>2.161796404495619</v>
+        <v>0.9754268878187592</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3366076354918861</v>
+        <v>-0.3789111237104547</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0414718233727303</v>
+        <v>0.04832611193802498</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1764677387864078</v>
       </c>
       <c r="E94" t="n">
-        <v>2.160317956775181</v>
+        <v>1.048321557500303</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2010686230222257</v>
+        <v>-0.1851338354215059</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006689876939818797</v>
+        <v>-0.02696920552719953</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1082622628551911</v>
       </c>
       <c r="E95" t="n">
-        <v>2.086168070340889</v>
+        <v>1.037319808333122</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.03639187006228028</v>
+        <v>-0.02790665360736129</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0002924189614084176</v>
+        <v>-0.005700661608317999</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03813324445566604</v>
       </c>
       <c r="E96" t="n">
-        <v>2.021265801207452</v>
+        <v>1.051204652539292</v>
       </c>
       <c r="F96" t="n">
-        <v>0.144095856601005</v>
+        <v>0.04480199026777469</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01620715518598004</v>
+        <v>-0.06449518508480054</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0229795770409723</v>
       </c>
       <c r="E97" t="n">
-        <v>1.849454196170908</v>
+        <v>1.037301510712819</v>
       </c>
       <c r="F97" t="n">
-        <v>0.274905544143161</v>
+        <v>0.1357594607912126</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06572478516912462</v>
+        <v>-0.06891467030851697</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06756028006038131</v>
       </c>
       <c r="E98" t="n">
-        <v>1.637434790361101</v>
+        <v>1.036561676931924</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3024086972197612</v>
+        <v>0.1700071167112928</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08745381919895094</v>
+        <v>-0.0657497919168713</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0924608426155005</v>
       </c>
       <c r="E99" t="n">
-        <v>1.470257972547166</v>
+        <v>0.9801940278282221</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3718188900750437</v>
+        <v>0.1888500060987473</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1251621650388996</v>
+        <v>-0.07619895295091902</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1018969672038692</v>
       </c>
       <c r="E100" t="n">
-        <v>1.301911936795904</v>
+        <v>0.8799688126215974</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3493988159184618</v>
+        <v>0.2261173792894071</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1522499621346344</v>
+        <v>-0.05081161470195786</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1032776309668137</v>
       </c>
       <c r="E101" t="n">
-        <v>1.129785002769481</v>
+        <v>0.8964671669276324</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4060342201992562</v>
+        <v>0.2193448200947967</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1742552902310276</v>
+        <v>-0.1123672490820789</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1081997148022193</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9736934932554413</v>
+        <v>0.8901117934759176</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3587983034678262</v>
+        <v>0.1812156289878918</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1802367823078957</v>
+        <v>-0.08455364638101392</v>
       </c>
     </row>
   </sheetData>
